--- a/Aufgaben.xlsx
+++ b/Aufgaben.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/772e85f18d37e82d/Zeug/FH-Ordner/Stoff/Semester4/Web_Application_Development/QuizIt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/772e85f18d37e82d/Zeug/FH-Ordner/Stoff/Semester4/Web_Application_Development/QuizIt/Repo/QuizIt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="8_{80271D84-3D5F-4BB3-9570-47F6BB9229E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00BD493E-BDE2-4784-91B0-0A399E02975B}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{80271D84-3D5F-4BB3-9570-47F6BB9229E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2196E176-0E97-479F-A77A-B079CBB961BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{766FD891-8964-469D-97C2-7D6F57F06240}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t>Erstelle Entity Settings (isPremiumUser, wantsMusic , wantsSportLeisure, wantsFilmTv, wantsArtsLiterature, wantsHistory, SocietyCulture, wantsScience, wantsGeography, wantsFoodDrink, wantsGeneralKnowledge)</t>
-  </si>
-  <si>
     <t>Erstelle Controller Function (User) deleteUser</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Minuten Pro Person:</t>
+  </si>
+  <si>
+    <t>Erstelle Entity Settings (id, userId, isPremiumUser, wantsMusic , wantsSportLeisure, wantsFilmTv, wantsArtsLiterature, wantsHistory, SocietyCulture, wantsScience, wantsGeography, wantsFoodDrink, wantsGeneralKnowledge)</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -753,7 +753,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,28 +765,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -803,12 +803,12 @@
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
       <c r="F2" s="12">
-        <f>AVERAGE(B2:E2)</f>
+        <f t="shared" ref="F2:F30" si="0">AVERAGE(B2:E2)</f>
         <v>25</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -822,12 +822,12 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="12">
-        <f>AVERAGE(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -841,12 +841,12 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
       <c r="F4" s="12">
-        <f>AVERAGE(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -860,12 +860,12 @@
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="12">
-        <f>AVERAGE(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -879,12 +879,12 @@
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="12">
-        <f>AVERAGE(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -898,12 +898,12 @@
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="12">
-        <f>AVERAGE(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -917,12 +917,12 @@
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="12">
-        <f>AVERAGE(B8:E8)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -936,12 +936,12 @@
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="12">
-        <f>AVERAGE(B9:E9)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -955,12 +955,12 @@
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
       <c r="F10" s="12">
-        <f>AVERAGE(B10:E10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -974,12 +974,12 @@
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
       <c r="F11" s="12">
-        <f>AVERAGE(B11:E11)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -993,12 +993,12 @@
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="12">
-        <f>AVERAGE(B12:E12)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1012,12 +1012,12 @@
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="12">
-        <f>AVERAGE(B13:E13)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1031,12 +1031,12 @@
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="12">
-        <f>AVERAGE(B14:E14)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1050,12 +1050,12 @@
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="12">
-        <f>AVERAGE(B15:E15)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1069,12 +1069,12 @@
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="12">
-        <f>AVERAGE(B16:E16)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1088,12 +1088,12 @@
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="12">
-        <f>AVERAGE(B17:E17)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,12 +1107,12 @@
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="12">
-        <f>AVERAGE(B18:E18)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="4" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1126,12 +1126,12 @@
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
       <c r="F19" s="12">
-        <f>AVERAGE(B19:E19)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1145,12 +1145,12 @@
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="12">
-        <f>AVERAGE(B20:E20)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1164,12 +1164,12 @@
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
       <c r="F21" s="12">
-        <f>AVERAGE(B21:E21)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1183,12 +1183,12 @@
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="12">
-        <f>AVERAGE(B22:E22)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1202,12 +1202,12 @@
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="12">
-        <f>AVERAGE(B23:E23)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1221,12 +1221,12 @@
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="12">
-        <f>AVERAGE(B24:E24)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1240,12 +1240,12 @@
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="12">
-        <f>AVERAGE(B25:E25)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1259,12 +1259,12 @@
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="12">
-        <f>AVERAGE(B26:E26)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1278,12 +1278,12 @@
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="12">
-        <f>AVERAGE(B27:E27)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,12 +1297,12 @@
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="12">
-        <f>AVERAGE(B28:E28)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1316,12 +1316,12 @@
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="12">
-        <f>AVERAGE(B29:E29)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1335,12 +1335,12 @@
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="12">
-        <f>AVERAGE(B30:E30)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="24">
         <f>SUM(F2:F34)/4</f>

--- a/Aufgaben.xlsx
+++ b/Aufgaben.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/772e85f18d37e82d/Zeug/FH-Ordner/Stoff/Semester4/Web_Application_Development/QuizIt/Repo/QuizIt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebApp\QuizIt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{80271D84-3D5F-4BB3-9570-47F6BB9229E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2196E176-0E97-479F-A77A-B079CBB961BE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611EA9D-054D-4396-844A-C9D7CED64173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{766FD891-8964-469D-97C2-7D6F57F06240}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -385,9 +385,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,6 +431,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +756,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,22 +770,22 @@
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -796,17 +799,19 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>25</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="12">
+      <c r="E2" s="24">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11">
         <f t="shared" ref="F2:F30" si="0">AVERAGE(B2:E2)</f>
-        <v>25</v>
-      </c>
-      <c r="G2" s="15"/>
+        <v>27.5</v>
+      </c>
+      <c r="G2" s="14"/>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
@@ -815,17 +820,19 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>20</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G3" s="15"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="25">
+        <v>30</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
@@ -834,17 +841,19 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>25</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G4" s="15"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="25">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
@@ -853,17 +862,19 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>20</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G5" s="15"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="25">
+        <v>30</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="14"/>
       <c r="H5" s="4" t="s">
         <v>3</v>
       </c>
@@ -872,17 +883,19 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>20</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G6" s="15"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="25">
+        <v>30</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="14"/>
       <c r="H6" s="4" t="s">
         <v>1</v>
       </c>
@@ -891,17 +904,19 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>20</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12">
-        <f t="shared" si="0"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="25">
         <v>20</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="14"/>
       <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
@@ -910,17 +925,19 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>70</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G8" s="15"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="25">
+        <v>120</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G8" s="14"/>
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
@@ -929,17 +946,19 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>25</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G9" s="15"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="25">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
@@ -948,17 +967,19 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12">
-        <f t="shared" si="0"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="25">
         <v>20</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="H10" s="4" t="s">
         <v>10</v>
       </c>
@@ -967,17 +988,19 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12">
-        <f t="shared" si="0"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="25">
         <v>20</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="14"/>
       <c r="H11" s="4" t="s">
         <v>0</v>
       </c>
@@ -986,17 +1009,19 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>40</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G12" s="15"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="25">
+        <v>45</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1005,17 +1030,19 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>40</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G13" s="15"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="25">
+        <v>45</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1024,17 +1051,19 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>20</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G14" s="15"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="25">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G14" s="14"/>
       <c r="H14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1043,17 +1072,19 @@
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G15" s="15"/>
+      <c r="B15" s="16">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="25">
+        <v>10</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="14"/>
       <c r="H15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1062,17 +1093,19 @@
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
-        <v>10</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G16" s="15"/>
+      <c r="B16" s="16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="25">
+        <v>10</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="14"/>
       <c r="H16" s="4" t="s">
         <v>23</v>
       </c>
@@ -1081,17 +1114,19 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
-        <v>10</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G17" s="15"/>
+      <c r="B17" s="16">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="25">
+        <v>10</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G17" s="14"/>
       <c r="H17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1100,17 +1135,19 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
-        <v>10</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G18" s="15"/>
+      <c r="B18" s="16">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="25">
+        <v>10</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G18" s="14"/>
       <c r="H18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1119,17 +1156,19 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G19" s="15"/>
+      <c r="B19" s="16">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="25">
+        <v>10</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="14"/>
       <c r="H19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1138,17 +1177,19 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>35</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G20" s="15"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="25">
+        <v>45</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G20" s="14"/>
       <c r="H20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1157,17 +1198,19 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>40</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G21" s="15"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="25">
+        <v>45</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="G21" s="14"/>
       <c r="H21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1176,17 +1219,19 @@
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>60</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12">
-        <f t="shared" si="0"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="25">
         <v>60</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G22" s="14"/>
       <c r="H22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1195,17 +1240,19 @@
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>50</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G23" s="15"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="25">
+        <v>45</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="G23" s="14"/>
       <c r="H23" s="4" t="s">
         <v>29</v>
       </c>
@@ -1214,17 +1261,19 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>50</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G24" s="15"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="25">
+        <v>45</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="G24" s="14"/>
       <c r="H24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1233,17 +1282,19 @@
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>70</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="12">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G25" s="15"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="25">
+        <v>90</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G25" s="14"/>
       <c r="H25" s="4" t="s">
         <v>31</v>
       </c>
@@ -1252,17 +1303,19 @@
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>80</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="12">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G26" s="15"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="25">
+        <v>60</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G26" s="14"/>
       <c r="H26" s="4" t="s">
         <v>32</v>
       </c>
@@ -1271,17 +1324,19 @@
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>15</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G27" s="15"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="25">
+        <v>10</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G27" s="14"/>
       <c r="H27" s="4" t="s">
         <v>7</v>
       </c>
@@ -1290,17 +1345,19 @@
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>15</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G28" s="15"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="25">
+        <v>10</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G28" s="14"/>
       <c r="H28" s="4" t="s">
         <v>2</v>
       </c>
@@ -1309,17 +1366,19 @@
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>50</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G29" s="15"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="25">
+        <v>60</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G29" s="14"/>
       <c r="H29" s="4" t="s">
         <v>33</v>
       </c>
@@ -1328,17 +1387,19 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>50</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G30" s="15"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="25">
+        <v>60</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G30" s="14"/>
       <c r="H30" s="4" t="s">
         <v>34</v>
       </c>
@@ -1347,53 +1408,53 @@
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="23">
         <f>SUM(F2:F34)/4</f>
-        <v>232.5</v>
+        <v>248.75</v>
       </c>
     </row>
   </sheetData>

--- a/Aufgaben.xlsx
+++ b/Aufgaben.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebApp\QuizIt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\Documents\GitHub\QuizIt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611EA9D-054D-4396-844A-C9D7CED64173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C890A8C-4D5E-4E40-8CE8-A41C2D02EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{766FD891-8964-469D-97C2-7D6F57F06240}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766FD891-8964-469D-97C2-7D6F57F06240}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -434,9 +434,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -756,7 +753,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,13 +800,15 @@
         <v>25</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7">
+        <v>40</v>
+      </c>
       <c r="E2" s="24">
         <v>30</v>
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F30" si="0">AVERAGE(B2:E2)</f>
-        <v>27.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="4" t="s">
@@ -824,13 +823,15 @@
         <v>20</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="25">
+      <c r="D3" s="8">
+        <v>40</v>
+      </c>
+      <c r="E3" s="9">
         <v>30</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="4" t="s">
@@ -845,13 +846,15 @@
         <v>25</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="25">
+      <c r="D4" s="8">
+        <v>40</v>
+      </c>
+      <c r="E4" s="9">
         <v>30</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="4" t="s">
@@ -866,13 +869,15 @@
         <v>20</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="25">
+      <c r="D5" s="8">
         <v>30</v>
       </c>
+      <c r="E5" s="9">
+        <v>30</v>
+      </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="4" t="s">
@@ -887,13 +892,15 @@
         <v>20</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="25">
+      <c r="D6" s="8">
         <v>30</v>
       </c>
+      <c r="E6" s="9">
+        <v>30</v>
+      </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="4" t="s">
@@ -908,8 +915,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="25">
+      <c r="D7" s="8">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
         <v>20</v>
       </c>
       <c r="F7" s="11">
@@ -929,13 +938,15 @@
         <v>70</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="25">
+      <c r="D8" s="8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="9">
         <v>120</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="4" t="s">
@@ -950,13 +961,15 @@
         <v>25</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="25">
+      <c r="D9" s="8">
         <v>30</v>
       </c>
+      <c r="E9" s="9">
+        <v>30</v>
+      </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>27.5</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="4" t="s">
@@ -971,8 +984,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="25">
+      <c r="D10" s="8">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" s="11">
@@ -992,8 +1007,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="25">
+      <c r="D11" s="8">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9">
         <v>20</v>
       </c>
       <c r="F11" s="11">
@@ -1013,13 +1030,15 @@
         <v>40</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="25">
+      <c r="D12" s="8">
+        <v>60</v>
+      </c>
+      <c r="E12" s="9">
         <v>45</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="4" t="s">
@@ -1034,13 +1053,15 @@
         <v>40</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="25">
+      <c r="D13" s="8">
+        <v>60</v>
+      </c>
+      <c r="E13" s="9">
         <v>45</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="4" t="s">
@@ -1055,13 +1076,15 @@
         <v>20</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="25">
+      <c r="D14" s="8">
         <v>30</v>
       </c>
+      <c r="E14" s="9">
+        <v>30</v>
+      </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="4" t="s">
@@ -1076,8 +1099,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="25">
+      <c r="D15" s="8">
+        <v>10</v>
+      </c>
+      <c r="E15" s="9">
         <v>10</v>
       </c>
       <c r="F15" s="11">
@@ -1097,8 +1122,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="25">
+      <c r="D16" s="8">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9">
         <v>10</v>
       </c>
       <c r="F16" s="11">
@@ -1118,8 +1145,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="25">
+      <c r="D17" s="8">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9">
         <v>10</v>
       </c>
       <c r="F17" s="11">
@@ -1139,8 +1168,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="25">
+      <c r="D18" s="8">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9">
         <v>10</v>
       </c>
       <c r="F18" s="11">
@@ -1160,8 +1191,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="25">
+      <c r="D19" s="8">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9">
         <v>10</v>
       </c>
       <c r="F19" s="11">
@@ -1181,13 +1214,15 @@
         <v>35</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="25">
+      <c r="D20" s="8">
+        <v>50</v>
+      </c>
+      <c r="E20" s="9">
         <v>45</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="4" t="s">
@@ -1202,13 +1237,15 @@
         <v>40</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="25">
+      <c r="D21" s="8">
+        <v>40</v>
+      </c>
+      <c r="E21" s="9">
         <v>45</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="4" t="s">
@@ -1223,13 +1260,15 @@
         <v>60</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="25">
+      <c r="D22" s="8">
+        <v>70</v>
+      </c>
+      <c r="E22" s="9">
         <v>60</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="4" t="s">
@@ -1244,13 +1283,15 @@
         <v>50</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="25">
+      <c r="D23" s="8">
+        <v>60</v>
+      </c>
+      <c r="E23" s="9">
         <v>45</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="4" t="s">
@@ -1265,13 +1306,15 @@
         <v>50</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="25">
+      <c r="D24" s="8">
+        <v>60</v>
+      </c>
+      <c r="E24" s="9">
         <v>45</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="4" t="s">
@@ -1286,13 +1329,15 @@
         <v>70</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="25">
+      <c r="D25" s="8">
+        <v>120</v>
+      </c>
+      <c r="E25" s="9">
         <v>90</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="4" t="s">
@@ -1307,13 +1352,15 @@
         <v>80</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="25">
+      <c r="D26" s="8">
+        <v>90</v>
+      </c>
+      <c r="E26" s="9">
         <v>60</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="4" t="s">
@@ -1328,13 +1375,15 @@
         <v>15</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="25">
+      <c r="D27" s="8">
+        <v>15</v>
+      </c>
+      <c r="E27" s="9">
         <v>10</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="4" t="s">
@@ -1349,13 +1398,15 @@
         <v>15</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="25">
+      <c r="D28" s="8">
+        <v>15</v>
+      </c>
+      <c r="E28" s="9">
         <v>10</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="4" t="s">
@@ -1370,13 +1421,15 @@
         <v>50</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="25">
+      <c r="D29" s="8">
         <v>60</v>
       </c>
+      <c r="E29" s="9">
+        <v>60</v>
+      </c>
       <c r="F29" s="11">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="4" t="s">
@@ -1391,13 +1444,15 @@
         <v>50</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="25">
+      <c r="D30" s="8">
         <v>60</v>
       </c>
+      <c r="E30" s="9">
+        <v>60</v>
+      </c>
       <c r="F30" s="11">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="4" t="s">
@@ -1454,7 +1509,7 @@
       </c>
       <c r="F35" s="23">
         <f>SUM(F2:F34)/4</f>
-        <v>248.75</v>
+        <v>266.66666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Aufgaben.xlsx
+++ b/Aufgaben.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26516"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\Documents\GitHub\QuizIt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C890A8C-4D5E-4E40-8CE8-A41C2D02EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85A2437-3ACF-4E79-ACD4-26C7A4781097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{766FD891-8964-469D-97C2-7D6F57F06240}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,125 +38,125 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Freddi</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Schätzung ∅ in Minuten</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Aufgaben</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (Custom Questions) createQuestion</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (Custom Questions) listCustomQuestion (mit Id des Quizes und der Id der Frage)</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (Custom Quizzes) createQuiz</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (Custom Quizzes) listCustomQuizzes (by Text zum suchen)</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (Highscores) listHighscores (by Text zum suchen)</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (Quiz) checkAnswer</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (Quiz) getQuestion (von der API)</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (Settings) setCategories</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (Settings) setPremiumUser (is separat zu Kategorie gedacht kann man aber auch zusammenlegen)</t>
+  </si>
+  <si>
     <t>Erstelle Controller Function (User) deleteUser</t>
   </si>
   <si>
-    <t>Erstelle Controller Function (Highscores) listHighscores (by Text zum suchen)</t>
+    <t>Erstelle Controller Function (User) loginUser (mit salted Hash überprüfen[logic is in Repository Querry)</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function (User) registerUser (mit salted Hash erstellen[logic is in Repository Querry)</t>
+  </si>
+  <si>
+    <t>Erstelle Controller Function User) editUser (für Nutzername und vll auch Passwort und E-Mail?)</t>
+  </si>
+  <si>
+    <t>Erstelle Entity Custom Quizzes (id, userId, name)</t>
+  </si>
+  <si>
+    <t>Erstelle Entity Cutsom Questions (id, quizId, rightAnswer, wrongAnswer1, wrongAnswer2, wrongAnswer3 )</t>
+  </si>
+  <si>
+    <t>Erstelle Entity Highscores (id, userId, score)</t>
+  </si>
+  <si>
+    <t>Erstelle Entity Settings (id, userId, isPremiumUser, wantsMusic , wantsSportLeisure, wantsFilmTv, wantsArtsLiterature, wantsHistory, SocietyCulture, wantsScience, wantsGeography, wantsFoodDrink, wantsGeneralKnowledge)</t>
+  </si>
+  <si>
+    <t>Erstelle Entity User (id, username, email, passwort[as hash with salt])</t>
+  </si>
+  <si>
+    <t>Erstelle HTML Home</t>
+  </si>
+  <si>
+    <t>Erstelle HTML Settings Login</t>
+  </si>
+  <si>
+    <t>Erstelle JSP Custom Quizzes Create Questions/Quiz</t>
+  </si>
+  <si>
+    <t>Erstelle JSP Custom Quizzes List</t>
+  </si>
+  <si>
+    <t>Erstelle JSP Highscores List</t>
+  </si>
+  <si>
+    <t>Erstelle JSP Quiz</t>
+  </si>
+  <si>
+    <t>Erstelle JSP Settings</t>
+  </si>
+  <si>
+    <t>Erstelle Repository Query (Custom Quizzes) findBySearchText</t>
   </si>
   <si>
     <t>Erstelle Repository Query (Highscores) findBySearchText</t>
   </si>
   <si>
-    <t>Erstelle Controller Function (Custom Quizzes) listCustomQuizzes (by Text zum suchen)</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function (Custom Questions) listCustomQuestion (mit Id des Quizes und der Id der Frage)</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function (Custom Questions) createQuestion</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function (Custom Quizzes) createQuiz</t>
-  </si>
-  <si>
-    <t>Erstelle Repository Query (Custom Quizzes) findBySearchText</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function User) editUser (für Nutzername und vll auch Passwort und E-Mail?)</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function (Settings) setCategories</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function (Settings) setPremiumUser (is separat zu Kategorie gedacht kann man aber auch zusammenlegen)</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function (Quiz) getQuestion (von der API)</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function (Quiz) checkAnswer</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Freddi</t>
-  </si>
-  <si>
-    <t>Jenny</t>
-  </si>
-  <si>
-    <t>Jakob</t>
-  </si>
-  <si>
-    <t>Florian</t>
-  </si>
-  <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>Schätzung ∅ in Minuten</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function (User) loginUser (mit salted Hash überprüfen[logic is in Repository Querry)</t>
-  </si>
-  <si>
-    <t>Erstelle Controller Function (User) registerUser (mit salted Hash erstellen[logic is in Repository Querry)</t>
-  </si>
-  <si>
-    <t>Erstelle Entity Custom Quizzes (id, userId, name)</t>
-  </si>
-  <si>
-    <t>Erstelle Entity Cutsom Questions (id, quizId, rightAnswer, wrongAnswer1, wrongAnswer2, wrongAnswer3 )</t>
-  </si>
-  <si>
-    <t>Erstelle Entity Highscores (id, userId, score)</t>
-  </si>
-  <si>
-    <t>Erstelle Entity User (id, username, email, passwort[as hash with salt])</t>
-  </si>
-  <si>
-    <t>Erstelle HTML Home</t>
-  </si>
-  <si>
-    <t>Erstelle HTML Settings Login</t>
-  </si>
-  <si>
-    <t>Erstelle JSP Custom Quizzes Create Questions/Quiz</t>
-  </si>
-  <si>
-    <t>Erstelle JSP Custom Quizzes List</t>
-  </si>
-  <si>
-    <t>Erstelle JSP Highscores List</t>
-  </si>
-  <si>
-    <t>Erstelle JSP Quiz</t>
-  </si>
-  <si>
-    <t>Erstelle JSP Settings</t>
-  </si>
-  <si>
     <t>Erstelle Repository Query (User) loginUser (Schauen ob E-Mail Passwort Salted Hash Kombination passt und dann entsprechende Id ausspucken[-1 z.b wenns nicht passt])</t>
   </si>
   <si>
     <t xml:space="preserve">Erstelle Repository Query (User) registerUser (mail und slated Hash Passwort einfügen und dann id des neuen Users zurück geben) </t>
   </si>
   <si>
-    <t>Aufgaben</t>
-  </si>
-  <si>
     <t>Minuten Pro Person:</t>
-  </si>
-  <si>
-    <t>Erstelle Entity Settings (id, userId, isPremiumUser, wantsMusic , wantsSportLeisure, wantsFilmTv, wantsArtsLiterature, wantsHistory, SocietyCulture, wantsScience, wantsGeography, wantsFoodDrink, wantsGeneralKnowledge)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -753,53 +753,55 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="15">
         <v>25</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7">
+        <v>50</v>
+      </c>
       <c r="D2" s="7">
         <v>40</v>
       </c>
@@ -808,21 +810,23 @@
       </c>
       <c r="F2" s="11">
         <f t="shared" ref="F2:F30" si="0">AVERAGE(B2:E2)</f>
-        <v>31.666666666666668</v>
+        <v>36.25</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="16">
         <v>20</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <v>50</v>
+      </c>
       <c r="D3" s="8">
         <v>40</v>
       </c>
@@ -831,21 +835,23 @@
       </c>
       <c r="F3" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="16">
         <v>25</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8">
+        <v>50</v>
+      </c>
       <c r="D4" s="8">
         <v>40</v>
       </c>
@@ -854,21 +860,23 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>31.666666666666668</v>
+        <v>36.25</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="16">
         <v>20</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>50</v>
+      </c>
       <c r="D5" s="8">
         <v>30</v>
       </c>
@@ -877,21 +885,23 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>32.5</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="16">
         <v>20</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8">
+        <v>50</v>
+      </c>
       <c r="D6" s="8">
         <v>30</v>
       </c>
@@ -900,21 +910,23 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>32.5</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="16">
         <v>20</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>50</v>
+      </c>
       <c r="D7" s="8">
         <v>20</v>
       </c>
@@ -923,21 +935,23 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="16">
         <v>70</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>120</v>
+      </c>
       <c r="D8" s="8">
         <v>100</v>
       </c>
@@ -946,21 +960,23 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>96.666666666666671</v>
+        <v>102.5</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="16">
         <v>25</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>40</v>
+      </c>
       <c r="D9" s="8">
         <v>30</v>
       </c>
@@ -969,21 +985,23 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>28.333333333333332</v>
+        <v>31.25</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="16">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
       <c r="D10" s="8">
         <v>20</v>
       </c>
@@ -996,17 +1014,19 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="16">
         <v>20</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8">
+        <v>20</v>
+      </c>
       <c r="D11" s="8">
         <v>20</v>
       </c>
@@ -1019,17 +1039,19 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="16">
         <v>40</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8">
+        <v>70</v>
+      </c>
       <c r="D12" s="8">
         <v>60</v>
       </c>
@@ -1038,21 +1060,23 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>48.333333333333336</v>
+        <v>53.75</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="16">
         <v>40</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8">
+        <v>70</v>
+      </c>
       <c r="D13" s="8">
         <v>60</v>
       </c>
@@ -1061,21 +1085,23 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>48.333333333333336</v>
+        <v>53.75</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="16">
         <v>20</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8">
+        <v>40</v>
+      </c>
       <c r="D14" s="8">
         <v>30</v>
       </c>
@@ -1084,21 +1110,23 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>26.666666666666668</v>
+        <v>30</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="16">
         <v>10</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8">
+        <v>15</v>
+      </c>
       <c r="D15" s="8">
         <v>10</v>
       </c>
@@ -1107,21 +1135,23 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="16">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8">
+        <v>15</v>
+      </c>
       <c r="D16" s="8">
         <v>10</v>
       </c>
@@ -1130,21 +1160,23 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="16">
         <v>10</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8">
+        <v>15</v>
+      </c>
       <c r="D17" s="8">
         <v>10</v>
       </c>
@@ -1153,21 +1185,23 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="16">
         <v>10</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="8">
+        <v>15</v>
+      </c>
       <c r="D18" s="8">
         <v>10</v>
       </c>
@@ -1176,21 +1210,23 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="16">
         <v>10</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8">
+        <v>15</v>
+      </c>
       <c r="D19" s="8">
         <v>10</v>
       </c>
@@ -1199,21 +1235,23 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="16">
         <v>35</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8">
+        <v>60</v>
+      </c>
       <c r="D20" s="8">
         <v>50</v>
       </c>
@@ -1222,21 +1260,23 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>43.333333333333336</v>
+        <v>47.5</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="16">
         <v>40</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8">
+        <v>50</v>
+      </c>
       <c r="D21" s="8">
         <v>40</v>
       </c>
@@ -1245,21 +1285,23 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>41.666666666666664</v>
+        <v>43.75</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="16">
         <v>60</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8">
+        <v>80</v>
+      </c>
       <c r="D22" s="8">
         <v>70</v>
       </c>
@@ -1268,21 +1310,23 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="0"/>
-        <v>63.333333333333336</v>
+        <v>67.5</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="16">
         <v>50</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8">
+        <v>70</v>
+      </c>
       <c r="D23" s="8">
         <v>60</v>
       </c>
@@ -1291,21 +1335,23 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="0"/>
-        <v>51.666666666666664</v>
+        <v>56.25</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="16">
         <v>50</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8">
+        <v>70</v>
+      </c>
       <c r="D24" s="8">
         <v>60</v>
       </c>
@@ -1314,21 +1360,23 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="0"/>
-        <v>51.666666666666664</v>
+        <v>56.25</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="16">
         <v>70</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8">
+        <v>120</v>
+      </c>
       <c r="D25" s="8">
         <v>120</v>
       </c>
@@ -1337,21 +1385,23 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="16">
         <v>80</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8">
+        <v>120</v>
+      </c>
       <c r="D26" s="8">
         <v>90</v>
       </c>
@@ -1360,21 +1410,23 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="0"/>
-        <v>76.666666666666671</v>
+        <v>87.5</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="16">
         <v>15</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="8">
+        <v>30</v>
+      </c>
       <c r="D27" s="8">
         <v>15</v>
       </c>
@@ -1383,21 +1435,23 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>17.5</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="16">
         <v>15</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8">
+        <v>30</v>
+      </c>
       <c r="D28" s="8">
         <v>15</v>
       </c>
@@ -1406,21 +1460,23 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>17.5</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="16">
         <v>50</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8">
+        <v>60</v>
+      </c>
       <c r="D29" s="8">
         <v>60</v>
       </c>
@@ -1429,21 +1485,23 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="0"/>
-        <v>56.666666666666664</v>
+        <v>57.5</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="16">
         <v>50</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8">
+        <v>60</v>
+      </c>
       <c r="D30" s="8">
         <v>60</v>
       </c>
@@ -1452,14 +1510,14 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="0"/>
-        <v>56.666666666666664</v>
+        <v>57.5</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1470,7 +1528,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1481,7 +1539,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1492,7 +1550,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -1503,13 +1561,13 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="23">
         <f>SUM(F2:F34)/4</f>
-        <v>266.66666666666669</v>
+        <v>294.0625</v>
       </c>
     </row>
   </sheetData>
